--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H2">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I2">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J2">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.64905884389938</v>
+        <v>0.6627425</v>
       </c>
       <c r="N2">
-        <v>0.64905884389938</v>
+        <v>1.325485</v>
       </c>
       <c r="O2">
-        <v>0.1865655559032979</v>
+        <v>0.1766083511268686</v>
       </c>
       <c r="P2">
-        <v>0.1865655559032979</v>
+        <v>0.1373859271892988</v>
       </c>
       <c r="Q2">
-        <v>0.8210446602221335</v>
+        <v>0.99090707041375</v>
       </c>
       <c r="R2">
-        <v>0.8210446602221335</v>
+        <v>3.963628281655</v>
       </c>
       <c r="S2">
-        <v>0.1075631983007606</v>
+        <v>0.1063312912971087</v>
       </c>
       <c r="T2">
-        <v>0.1075631983007606</v>
+        <v>0.06899002701819472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H3">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I3">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J3">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.421003292480308</v>
+        <v>0.5012916666666667</v>
       </c>
       <c r="N3">
-        <v>0.421003292480308</v>
+        <v>1.503875</v>
       </c>
       <c r="O3">
-        <v>0.1210132394573515</v>
+        <v>0.1335847552912932</v>
       </c>
       <c r="P3">
-        <v>0.1210132394573515</v>
+        <v>0.1558759708724027</v>
       </c>
       <c r="Q3">
-        <v>0.5325595798837619</v>
+        <v>0.7495120002708334</v>
       </c>
       <c r="R3">
-        <v>0.5325595798837619</v>
+        <v>4.497072001625</v>
       </c>
       <c r="S3">
-        <v>0.06976942238746024</v>
+        <v>0.08042790410022965</v>
       </c>
       <c r="T3">
-        <v>0.06976942238746024</v>
+        <v>0.07827502905124356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H4">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I4">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J4">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.329822968119545</v>
+        <v>0.3493176666666667</v>
       </c>
       <c r="N4">
-        <v>0.329822968119545</v>
+        <v>1.047953</v>
       </c>
       <c r="O4">
-        <v>0.09480435552995534</v>
+        <v>0.09308655643705531</v>
       </c>
       <c r="P4">
-        <v>0.09480435552995534</v>
+        <v>0.1086198595652212</v>
       </c>
       <c r="Q4">
-        <v>0.4172185454962354</v>
+        <v>0.5222863264698334</v>
       </c>
       <c r="R4">
-        <v>0.4172185454962354</v>
+        <v>3.133717958819001</v>
       </c>
       <c r="S4">
-        <v>0.05465885513685076</v>
+        <v>0.05604499269257616</v>
       </c>
       <c r="T4">
-        <v>0.05465885513685076</v>
+        <v>0.05454479362934941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H5">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I5">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J5">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.57651852558127</v>
+        <v>0.6257723333333333</v>
       </c>
       <c r="N5">
-        <v>0.57651852558127</v>
+        <v>1.877317</v>
       </c>
       <c r="O5">
-        <v>0.1657145576623458</v>
+        <v>0.166756500406739</v>
       </c>
       <c r="P5">
-        <v>0.1657145576623458</v>
+        <v>0.1945830670835451</v>
       </c>
       <c r="Q5">
-        <v>0.7292828090961498</v>
+        <v>0.9356307005651666</v>
       </c>
       <c r="R5">
-        <v>0.7292828090961498</v>
+        <v>5.613784203391</v>
       </c>
       <c r="S5">
-        <v>0.0955416863571366</v>
+        <v>0.1003997484110919</v>
       </c>
       <c r="T5">
-        <v>0.0955416863571366</v>
+        <v>0.09771227177351402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H6">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I6">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J6">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.56731258559394</v>
+        <v>0.6662906666666667</v>
       </c>
       <c r="N6">
-        <v>0.56731258559394</v>
+        <v>1.998872</v>
       </c>
       <c r="O6">
-        <v>0.1630684011119932</v>
+        <v>0.1775538704869871</v>
       </c>
       <c r="P6">
-        <v>0.1630684011119932</v>
+        <v>0.207182188446288</v>
       </c>
       <c r="Q6">
-        <v>0.7176375046064779</v>
+        <v>0.9962121526093334</v>
       </c>
       <c r="R6">
-        <v>0.7176375046064779</v>
+        <v>5.977272915656</v>
       </c>
       <c r="S6">
-        <v>0.09401606143466719</v>
+        <v>0.1069005638930325</v>
       </c>
       <c r="T6">
-        <v>0.09401606143466719</v>
+        <v>0.1040390749694737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H7">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I7">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J7">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935269177726926</v>
+        <v>0.9471965</v>
       </c>
       <c r="N7">
-        <v>0.935269177726926</v>
+        <v>1.894393</v>
       </c>
       <c r="O7">
-        <v>0.2688338903350562</v>
+        <v>0.2524099662510568</v>
       </c>
       <c r="P7">
-        <v>0.2688338903350562</v>
+        <v>0.196352986843244</v>
       </c>
       <c r="Q7">
-        <v>1.18309421628046</v>
+        <v>1.41621173973475</v>
       </c>
       <c r="R7">
-        <v>1.18309421628046</v>
+        <v>5.664846958939</v>
       </c>
       <c r="S7">
-        <v>0.1549944892885955</v>
+        <v>0.1519694707327534</v>
       </c>
       <c r="T7">
-        <v>0.1549944892885955</v>
+        <v>0.0986010586714138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H8">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I8">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J8">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.64905884389938</v>
+        <v>0.6627425</v>
       </c>
       <c r="N8">
-        <v>0.64905884389938</v>
+        <v>1.325485</v>
       </c>
       <c r="O8">
-        <v>0.1865655559032979</v>
+        <v>0.1766083511268686</v>
       </c>
       <c r="P8">
-        <v>0.1865655559032979</v>
+        <v>0.1373859271892988</v>
       </c>
       <c r="Q8">
-        <v>0.603035841990802</v>
+        <v>0.6549157319891666</v>
       </c>
       <c r="R8">
-        <v>0.603035841990802</v>
+        <v>3.929494391935</v>
       </c>
       <c r="S8">
-        <v>0.07900235760253731</v>
+        <v>0.07027705982975993</v>
       </c>
       <c r="T8">
-        <v>0.07900235760253731</v>
+        <v>0.06839590017110408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H9">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I9">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J9">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.421003292480308</v>
+        <v>0.5012916666666667</v>
       </c>
       <c r="N9">
-        <v>0.421003292480308</v>
+        <v>1.503875</v>
       </c>
       <c r="O9">
-        <v>0.1210132394573515</v>
+        <v>0.1335847552912932</v>
       </c>
       <c r="P9">
-        <v>0.1210132394573515</v>
+        <v>0.1558759708724027</v>
       </c>
       <c r="Q9">
-        <v>0.3911510910729075</v>
+        <v>0.4953715791805556</v>
       </c>
       <c r="R9">
-        <v>0.3911510910729075</v>
+        <v>4.458344212625</v>
       </c>
       <c r="S9">
-        <v>0.05124381706989121</v>
+        <v>0.05315685119106351</v>
       </c>
       <c r="T9">
-        <v>0.05124381706989121</v>
+        <v>0.07760094182115916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H10">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I10">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J10">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.329822968119545</v>
+        <v>0.3493176666666667</v>
       </c>
       <c r="N10">
-        <v>0.329822968119545</v>
+        <v>1.047953</v>
       </c>
       <c r="O10">
-        <v>0.09480435552995534</v>
+        <v>0.09308655643705531</v>
       </c>
       <c r="P10">
-        <v>0.09480435552995534</v>
+        <v>0.1086198595652212</v>
       </c>
       <c r="Q10">
-        <v>0.3064361161662391</v>
+        <v>0.3451923414625556</v>
       </c>
       <c r="R10">
-        <v>0.3064361161662391</v>
+        <v>3.106731073163</v>
       </c>
       <c r="S10">
-        <v>0.04014550039310457</v>
+        <v>0.03704156374447915</v>
       </c>
       <c r="T10">
-        <v>0.04014550039310457</v>
+        <v>0.05407506593587181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H11">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I11">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J11">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.57651852558127</v>
+        <v>0.6257723333333333</v>
       </c>
       <c r="N11">
-        <v>0.57651852558127</v>
+        <v>1.877317</v>
       </c>
       <c r="O11">
-        <v>0.1657145576623458</v>
+        <v>0.166756500406739</v>
       </c>
       <c r="P11">
-        <v>0.1657145576623458</v>
+        <v>0.1945830670835451</v>
       </c>
       <c r="Q11">
-        <v>0.5356391608633453</v>
+        <v>0.6183821706674444</v>
       </c>
       <c r="R11">
-        <v>0.5356391608633453</v>
+        <v>5.565439536006999</v>
       </c>
       <c r="S11">
-        <v>0.07017287130520919</v>
+        <v>0.06635675199564708</v>
       </c>
       <c r="T11">
-        <v>0.07017287130520919</v>
+        <v>0.09687079531003112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H12">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I12">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J12">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.56731258559394</v>
+        <v>0.6662906666666667</v>
       </c>
       <c r="N12">
-        <v>0.56731258559394</v>
+        <v>1.998872</v>
       </c>
       <c r="O12">
-        <v>0.1630684011119932</v>
+        <v>0.1775538704869871</v>
       </c>
       <c r="P12">
-        <v>0.1630684011119932</v>
+        <v>0.207182188446288</v>
       </c>
       <c r="Q12">
-        <v>0.5270859891074159</v>
+        <v>0.6584219959902222</v>
       </c>
       <c r="R12">
-        <v>0.5270859891074159</v>
+        <v>5.925797963911999</v>
       </c>
       <c r="S12">
-        <v>0.06905233967732602</v>
+        <v>0.07065330659395462</v>
       </c>
       <c r="T12">
-        <v>0.06905233967732602</v>
+        <v>0.1031431134768143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.929092712716025</v>
+        <v>0.9881903333333333</v>
       </c>
       <c r="H13">
-        <v>0.929092712716025</v>
+        <v>2.964571</v>
       </c>
       <c r="I13">
-        <v>0.423456287094529</v>
+        <v>0.3979260288732077</v>
       </c>
       <c r="J13">
-        <v>0.423456287094529</v>
+        <v>0.4978377448868108</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.935269177726926</v>
+        <v>0.9471965</v>
       </c>
       <c r="N13">
-        <v>0.935269177726926</v>
+        <v>1.894393</v>
       </c>
       <c r="O13">
-        <v>0.2688338903350562</v>
+        <v>0.2524099662510568</v>
       </c>
       <c r="P13">
-        <v>0.2688338903350562</v>
+        <v>0.196352986843244</v>
       </c>
       <c r="Q13">
-        <v>0.8689517774539958</v>
+        <v>0.9360104250671666</v>
       </c>
       <c r="R13">
-        <v>0.8689517774539958</v>
+        <v>5.616062550403</v>
       </c>
       <c r="S13">
-        <v>0.1138394010464607</v>
+        <v>0.1004404955183034</v>
       </c>
       <c r="T13">
-        <v>0.1138394010464607</v>
+        <v>0.09775192817183022</v>
       </c>
     </row>
   </sheetData>
